--- a/biology/Botanique/Juglandaceae/Juglandaceae.xlsx
+++ b/biology/Botanique/Juglandaceae/Juglandaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Juglandaceae (Juglandacées) regroupe des plantes dicotylédones ; elle comprend 50 espèces réparties en 8 à 11 genres.
 Ce sont essentiellement des arbres à feuilles caduques originaires des zones tempérées à tropicales de l'hémisphère nord. Ils ne sont présents, ni en Afrique, ni en Australie. C'est la famille botanique des noyers (genre Juglans) et des caryers (genre Carya) dont le pacanier (Carya illinoinensis) fait partie.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Juglans, nom latin scientifique du Noyer issu de Jovis glans, « gland de Jupiter », qui désignait d’abord le Châtaignier (Castanea, Fagaceae)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Juglans, nom latin scientifique du Noyer issu de Jovis glans, « gland de Jupiter », qui désignait d’abord le Châtaignier (Castanea, Fagaceae).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Classification de Cronquist cette famille fait déjà partie de l'ordre des Juglandales.
 La classification phylogénétique a supprimé cet ordre et place cette famille dans celui des Fagales.
@@ -576,10 +592,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG III (2009)[2] inclut dans cette famille les genres précédemment placés dans la famille Rhoipteleaceae. Le genre Rhoiptelea pour être précis.
-Selon Manos, P. S., and D. E. Stone 2001. "Evolution, phylogeny and systematics of the Juglandaceae." Annals of the Missouri Botanical Garden[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans la famille Rhoipteleaceae. Le genre Rhoiptelea pour être précis.
+Selon Manos, P. S., and D. E. Stone 2001. "Evolution, phylogeny and systematics of the Juglandaceae." Annals of the Missouri Botanical Garden :
 sous-famille des Engelhardioideae
 Alfaroa Standl.
 Engelhardia Lesch. ex Blume
@@ -594,7 +612,7 @@
 Cyclocarya Iljinsk
 Juglans L.
 Pterocarya Kunth
-Selon Angiosperm Phylogeny Website                        (30 mai 2010)[4] et DELTA Angio           (30 mai 2010)[5] :
+Selon Angiosperm Phylogeny Website                        (30 mai 2010) et DELTA Angio           (30 mai 2010) :
 Alfaroa Standl.
 Carya Nutt.
 Cyclocarya Iljinsk.
@@ -603,7 +621,7 @@
 Oreomunnea Oerst.
 Platycarya Siebold &amp; Zucc.
 Pterocarya Kunth
-Selon NCBI  (30 mai 2010)[6] (Plus conforme à APGIII puisqu'il incorpore le genre Rhoiptelea anciennement dans Rhoipteleaceae) :
+Selon NCBI  (30 mai 2010) (Plus conforme à APGIII puisqu'il incorpore le genre Rhoiptelea anciennement dans Rhoipteleaceae) :
 Alfaroa
 Alfaropsis (Son unique espèce Alfaropsis roxburghiana est un synonyme pour Engelhardia roxburghiana)
 Annamocarya (Son unique espèce Annamocarya sinensis est un synonyme pour Carya sinensis)
@@ -614,8 +632,8 @@
 Oreomunnea
 Platycarya
 Pterocarya
-Rhoiptelea (classé dans Rhoipteleaceae par Angiosperm Phylogeny Website, mais incorporé dans Juglandaceae par classification phylogénétique APG III (2009)[2])
-Selon ITIS      (30 mai 2010)[7] :
+Rhoiptelea (classé dans Rhoipteleaceae par Angiosperm Phylogeny Website, mais incorporé dans Juglandaceae par classification phylogénétique APG III (2009))
+Selon ITIS      (30 mai 2010) :
 Carya Nutt.
 Juglans L.
 Pterocarya Kunth</t>
@@ -646,9 +664,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (30 mai 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (30 mai 2010) :
 genre Alfaroa
 Alfaroa costaricensis
 Alfaroa guanacastensis
